--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-619084368"/>
-        <c:axId val="-619087088"/>
+        <c:axId val="-364559792"/>
+        <c:axId val="-364559248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-619084368"/>
+        <c:axId val="-364559792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-619087088"/>
+        <c:crossAx val="-364559248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-619087088"/>
+        <c:axId val="-364559248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-619084368"/>
+        <c:crossAx val="-364559792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-619089808"/>
-        <c:axId val="-619085456"/>
+        <c:axId val="-364560336"/>
+        <c:axId val="-364192096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-619089808"/>
+        <c:axId val="-364560336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-619085456"/>
+        <c:crossAx val="-364192096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-619085456"/>
+        <c:axId val="-364192096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-619089808"/>
+        <c:crossAx val="-364560336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2237,6 +2237,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
@@ -2259,7 +2264,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -208,7 +208,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-364559792"/>
-        <c:axId val="-364559248"/>
+        <c:axId val="1208355568"/>
+        <c:axId val="1208358832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-364559792"/>
+        <c:axId val="1208355568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-364559248"/>
+        <c:crossAx val="1208358832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-364559248"/>
+        <c:axId val="1208358832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-364559792"/>
+        <c:crossAx val="1208355568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -495,7 +495,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-364560336"/>
-        <c:axId val="-364192096"/>
+        <c:axId val="1208356112"/>
+        <c:axId val="1208362096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-364560336"/>
+        <c:axId val="1208356112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-364192096"/>
+        <c:crossAx val="1208362096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-364192096"/>
+        <c:axId val="1208362096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-364560336"/>
+        <c:crossAx val="1208356112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="Q7">
         <f>F24-F2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2242,6 +2242,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
@@ -2264,7 +2269,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -202,13 +202,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1208355568"/>
-        <c:axId val="1208358832"/>
+        <c:axId val="-1811483024"/>
+        <c:axId val="-1811482480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1208355568"/>
+        <c:axId val="-1811483024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,7 +273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208358832"/>
+        <c:crossAx val="-1811482480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -281,7 +281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1208358832"/>
+        <c:axId val="-1811482480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208355568"/>
+        <c:crossAx val="-1811483024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1208356112"/>
-        <c:axId val="1208362096"/>
+        <c:axId val="-1716126048"/>
+        <c:axId val="-1716127136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1208356112"/>
+        <c:axId val="-1716126048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208362096"/>
+        <c:crossAx val="-1716127136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1208362096"/>
+        <c:axId val="-1716127136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1208356112"/>
+        <c:crossAx val="-1716126048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2109,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2189,6 +2189,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -2247,6 +2250,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
@@ -2261,7 +2269,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -2269,7 +2277,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -46,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,17 +97,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="da-DK"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -140,7 +130,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -148,34 +137,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -188,18 +155,17 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$24:$G$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -208,7 +174,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -217,28 +183,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1811483024"/>
-        <c:axId val="-1811482480"/>
+        <c:axId val="69635072"/>
+        <c:axId val="100827904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1811483024"/>
+        <c:axId val="69635072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -270,22 +227,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1811482480"/>
+        <c:crossAx val="100827904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1811482480"/>
+        <c:axId val="100827904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -301,9 +256,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -329,10 +283,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1811483024"/>
+        <c:crossAx val="69635072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -346,7 +300,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -370,12 +323,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -383,17 +336,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="da-DK"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -427,7 +370,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -435,34 +377,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -475,12 +395,11 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$3:$Q$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -504,28 +423,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1716126048"/>
-        <c:axId val="-1716127136"/>
+        <c:axId val="101396864"/>
+        <c:axId val="101398400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1716126048"/>
+        <c:axId val="101396864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -557,22 +467,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1716127136"/>
+        <c:crossAx val="101398400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1716127136"/>
+        <c:axId val="101398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -588,9 +496,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -616,10 +523,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1716126048"/>
+        <c:crossAx val="101396864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,7 +540,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -657,12 +563,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1820,9 +1726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1860,9 +1766,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1894,10 +1800,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1929,10 +1834,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2105,30 +2009,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2137,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2167,11 +2071,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
@@ -2185,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2200,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2212,7 +2119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -2221,7 +2131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="F8">
         <v>1</v>
       </c>
@@ -2230,42 +2140,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:G24" si="0">SUM(B4:B23)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -2277,7 +2192,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -188,7 +188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -207,11 +207,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="457511488"/>
-        <c:axId val="457500064"/>
+        <c:axId val="1548089424"/>
+        <c:axId val="1548091600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="457511488"/>
+        <c:axId val="1548089424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457500064"/>
+        <c:crossAx val="1548091600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,7 +261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457500064"/>
+        <c:axId val="1548091600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457511488"/>
+        <c:crossAx val="1548089424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="527057328"/>
-        <c:axId val="527056784"/>
+        <c:axId val="1456438496"/>
+        <c:axId val="1456440672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="527057328"/>
+        <c:axId val="1456438496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527056784"/>
+        <c:crossAx val="1456440672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527056784"/>
+        <c:axId val="1456440672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527057328"/>
+        <c:crossAx val="1456438496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +983,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1145,6 +1145,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
@@ -1167,7 +1172,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -191,7 +191,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,11 +207,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1548089424"/>
-        <c:axId val="1548091600"/>
+        <c:axId val="-316379792"/>
+        <c:axId val="-316549024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1548089424"/>
+        <c:axId val="-316379792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548091600"/>
+        <c:crossAx val="-316549024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,7 +261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548091600"/>
+        <c:axId val="-316549024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548089424"/>
+        <c:crossAx val="-316379792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1456438496"/>
-        <c:axId val="1456440672"/>
+        <c:axId val="-218929520"/>
+        <c:axId val="-218928976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1456438496"/>
+        <c:axId val="-218929520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1456440672"/>
+        <c:crossAx val="-218928976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1456440672"/>
+        <c:axId val="-218928976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1456438496"/>
+        <c:crossAx val="-218929520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +983,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1057,6 +1057,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="Q4">
         <f>C24-C2</f>
         <v>0</v>
@@ -1176,7 +1179,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -188,10 +188,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -207,11 +207,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-316379792"/>
-        <c:axId val="-316549024"/>
+        <c:axId val="-1059918880"/>
+        <c:axId val="-1059927040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-316379792"/>
+        <c:axId val="-1059918880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-316549024"/>
+        <c:crossAx val="-1059927040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,7 +261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-316549024"/>
+        <c:axId val="-1059927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-316379792"/>
+        <c:crossAx val="-1059918880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-218929520"/>
-        <c:axId val="-218928976"/>
+        <c:axId val="-1059922144"/>
+        <c:axId val="-1059916704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-218929520"/>
+        <c:axId val="-1059922144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-218928976"/>
+        <c:crossAx val="-1059916704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-218928976"/>
+        <c:axId val="-1059916704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-218929520"/>
+        <c:crossAx val="-1059922144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +983,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1075,6 +1075,9 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="Q5">
         <f>D24-D2</f>
         <v>0</v>
@@ -1153,6 +1156,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
@@ -1175,11 +1183,11 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Administratielt/Fravær.xlsx
+++ b/trunk/Administratielt/Fravær.xlsx
@@ -176,7 +176,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -188,7 +188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -207,11 +207,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1059918880"/>
-        <c:axId val="-1059927040"/>
+        <c:axId val="-1802403456"/>
+        <c:axId val="-1802398016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1059918880"/>
+        <c:axId val="-1802403456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059927040"/>
+        <c:crossAx val="-1802398016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,7 +261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1059927040"/>
+        <c:axId val="-1802398016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059918880"/>
+        <c:crossAx val="-1802403456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -474,11 +474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1059922144"/>
-        <c:axId val="-1059916704"/>
+        <c:axId val="-1796880256"/>
+        <c:axId val="-1796880800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1059922144"/>
+        <c:axId val="-1796880256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059916704"/>
+        <c:crossAx val="-1796880800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1059916704"/>
+        <c:axId val="-1796880800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059922144"/>
+        <c:crossAx val="-1796880256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +983,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1108,6 +1108,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1161,13 +1164,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:G24" si="0">SUM(B4:B23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1183,7 +1191,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
